--- a/Testcases Raum Management.xlsx
+++ b/Testcases Raum Management.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kay\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Simon Leu\Documents\Schule\M426\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB76999-8378-4826-BC51-69B821327F74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t xml:space="preserve">Testcases </t>
   </si>
@@ -81,12 +82,45 @@
   </si>
   <si>
     <t>Es wird die Detailansicht der Reservation angezeigt. (Name, Telefon des Veranstalters, Startzeit, Endzeit)</t>
+  </si>
+  <si>
+    <t>Simon Leu</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Der Benutzer sucht auf der Raumliste die verfügbaren Räume für einen Tag und eine Zeit.</t>
+  </si>
+  <si>
+    <t>Alle zu dieser Zeit an diesem Tag verfügbaren Räume werden angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Benutzer reserviert einen Raum an einem freien Datum.</t>
+  </si>
+  <si>
+    <t>Der Benutzer ruft die Detail eines Raumes auf.</t>
+  </si>
+  <si>
+    <t>Der Benutzer ruft die Raumliste auf.</t>
+  </si>
+  <si>
+    <t>Es werden alle verfügbaren Räume angezeigt.</t>
+  </si>
+  <si>
+    <t>Es wird eine Detailansicht mit der Verfügbarkeit des Raumes angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Benutzer erhält eine Bestätigung seiner Reservierung und es wird eine Reservation erstellt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,12 +156,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,26 +485,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -475,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -489,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -500,7 +550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -511,7 +561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -522,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -533,7 +583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -544,44 +594,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43286</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B13:D13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testcases Raum Management.xlsx
+++ b/Testcases Raum Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Simon Leu\Documents\Schule\M426\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB76999-8378-4826-BC51-69B821327F74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7A445F-C4B9-40C1-83C9-E653F69BEB62}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t xml:space="preserve">Testcases </t>
   </si>
@@ -115,6 +115,27 @@
   </si>
   <si>
     <t>Der Benutzer erhält eine Bestätigung seiner Reservierung und es wird eine Reservation erstellt.</t>
+  </si>
+  <si>
+    <t>Tatsächliches Ergebnis</t>
+  </si>
+  <si>
+    <t>Bewertung</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Fazit</t>
+  </si>
+  <si>
+    <t>Nicht Implementiert</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Wegen Zeitmangel konnte die Filterfunktion nicht mehr vollständig implementiert werden. Alle anderen Funktionen sind vorhanden</t>
   </si>
 </sst>
 </file>
@@ -164,13 +185,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E22"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,14 +518,15 @@
     <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.33203125" customWidth="1"/>
     <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -603,11 +625,11 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -642,7 +664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -652,49 +674,87 @@
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="6">
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="6">
+      <c r="E19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
         <v>2</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="6">
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
         <v>3</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="6">
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
         <v>4</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
